--- a/webroot/files/tg/4063/Curva3G bbb.xlsx
+++ b/webroot/files/tg/4063/Curva3G bbb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Portal-Web\webroot\files\tg\4102\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verano-my.sharepoint.com/personal/aestupinan_verano_com_co/Documents/TGI/ContratoTGI_Octubre_02_2018/PORTAL PROYECTOS/3GENERACIONES/31 MARZO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86AEB7B-FACF-4674-9058-56BB7E2EF2C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{DF8480F5-A122-413F-B30D-9F2E77A9F37F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0F9BCA19-89EC-4344-B398-F1BE0EB7940E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{83AD37E1-F23D-4B7B-A7EB-672069417472}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,10 +589,10 @@
         <v>2.8700452350272566E-2</v>
       </c>
       <c r="B6" s="2">
-        <v>3.7020319207450074E-2</v>
+        <v>1.520569850733058E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>3.7020319207450074E-2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -602,9 +602,11 @@
       <c r="A7" s="2">
         <v>4.2979749637772735E-2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>0.11839546635645781</v>
+      </c>
       <c r="C7" s="2">
-        <v>7.1194442308715897E-2</v>
+        <v>0.11839546635645781</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -616,7 +618,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>0.12322926952390578</v>
+        <v>0.12314230179949578</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -628,7 +630,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>0.22890715022010832</v>
+        <v>0.2288201824956983</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -640,7 +642,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
-        <v>0.34607508408086785</v>
+        <v>0.34598811635645776</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -652,7 +654,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>0.60508655654922228</v>
+        <v>0.6049995888248122</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -664,7 +666,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
-        <v>1.1436852916758045</v>
+        <v>1.1435983239513945</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -676,7 +678,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
-        <v>1.6379507964226399</v>
+        <v>1.6378638286982299</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -688,7 +690,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>1.9249002052833992</v>
+        <v>1.9248132375589893</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -700,7 +702,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
-        <v>2.172797291042893</v>
+        <v>2.172710323318483</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -712,7 +714,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>2.172797291042893</v>
+        <v>2.172710323318483</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -722,7 +724,9 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>2020</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>

--- a/webroot/files/tg/4063/Curva3G bbb.xlsx
+++ b/webroot/files/tg/4063/Curva3G bbb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verano-my.sharepoint.com/personal/aestupinan_verano_com_co/Documents/TGI/ContratoTGI_Octubre_02_2018/PORTAL PROYECTOS/3GENERACIONES/31 MARZO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpospina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{DF8480F5-A122-413F-B30D-9F2E77A9F37F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0F9BCA19-89EC-4344-B398-F1BE0EB7940E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B00018-5862-4F4C-A493-9B6F390DA3A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{83AD37E1-F23D-4B7B-A7EB-672069417472}"/>
+    <workbookView xWindow="16035" yWindow="255" windowWidth="12720" windowHeight="15555" xr2:uid="{83AD37E1-F23D-4B7B-A7EB-672069417472}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,101 +572,97 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1.4392762061625325E-2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2.8700452350272566E-2</v>
+        <v>1.5658353651192541E-2</v>
       </c>
       <c r="B6" s="2">
-        <v>1.520569850733058E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
+        <v>1.5658353651192541E-2</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4.2979749637772735E-2</v>
+        <v>9.0559098897334808E-2</v>
       </c>
       <c r="B7" s="2">
-        <v>0.11839546635645781</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.11839546635645781</v>
-      </c>
+        <v>9.0559098897334808E-2</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5.7234585457084527E-2</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>0.12314230179949578</v>
-      </c>
+        <v>0.11355911767974217</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.11355911767974217</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.19302253226312588</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>0.2288201824956983</v>
-      </c>
+        <v>0.12559704317902443</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.12559704317902443</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.32891413117710444</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <v>0.34598811635645776</v>
-      </c>
+        <v>0.1439910912251427</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1439910912251427</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0.57249909179457092</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
-        <v>0.6049995888248122</v>
-      </c>
+        <v>0.15159701489746161</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.15152989644831028</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0.81645789053074103</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>0.16680886224209945</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.30739166097658177</v>
+      </c>
       <c r="C12" s="2">
-        <v>1.1435983239513945</v>
+        <v>0.30739166097658177</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -674,11 +670,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1.0605288152813033</v>
+        <v>0.52638906244056938</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
-        <v>1.6378638286982299</v>
+        <v>0.76119685984911545</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -686,11 +682,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1.3050059159200602</v>
+        <v>0.86621535062776456</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>1.9248132375589893</v>
+        <v>1.5357035933286018</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -698,11 +694,11 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>1.7400331357373182</v>
+        <v>1.4689662703865227</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
-        <v>2.172710323318483</v>
+        <v>1.8658006807072427</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -710,18 +706,20 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2.17455450477537</v>
+        <v>2.1978932064309054</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>2.172710323318483</v>
+        <v>1.9519265811143833</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>0.2295983796500364</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
